--- a/Unit Tests.xlsx
+++ b/Unit Tests.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Developer\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Developer\Desktop\ProyectoFinalSMweb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BEA2A79-8E30-48F6-935A-D21E0C49FD79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28F1215-5DEB-4E4B-9864-43635B3E750B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -482,13 +482,13 @@
   <dimension ref="A2:F997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="47.7109375" customWidth="1"/>
     <col min="4" max="4" width="50.140625" customWidth="1"/>
     <col min="5" max="5" width="51.5703125" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
@@ -782,7 +782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="997" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="997" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C997" s="1"/>
     </row>
   </sheetData>
